--- a/SolidWorks/Technische Tekeningen PDF/Materiaallijst.xlsx
+++ b/SolidWorks/Technische Tekeningen PDF/Materiaallijst.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e726cf9a4c539c69/Documenten/GitHub/BeeHive/SolidWorks/Technische Tekeningen PDF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FF9E9BD-767E-40A7-AD2A-21626B14E672}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11CDC287-71C5-43F6-9950-E64B48BD0CFC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="2100" windowWidth="21600" windowHeight="11385" xr2:uid="{30C679E5-484E-41ED-AB7C-AE448D295E0D}"/>
+    <workbookView xWindow="4350" yWindow="2100" windowWidth="21600" windowHeight="11385" xr2:uid="{0C56CB43-CE6F-42FA-BE20-76F11E10600E}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
-    <customWorkbookView name="Shadeshroud - - Persoonlijke weergave" guid="{AEFDC6F7-2A2C-4686-853B-9FCED63E7946}" mergeInterval="0" personalView="1" xWindow="290" yWindow="140" windowWidth="1440" windowHeight="759" activeSheetId="1"/>
+    <customWorkbookView name="Shadeshroud - - Persoonlijke weergave" guid="{717E67CA-9843-491D-857B-FAF1EEF9741F}" mergeInterval="0" personalView="1" xWindow="290" yWindow="140" windowWidth="1440" windowHeight="759" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,7 +36,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
-    <t>NR</t>
+    <t>ITEM NO.</t>
   </si>
   <si>
     <t>PART NUMBER</t>
@@ -49,7 +49,611 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">30 voetstuk bijenkast bijenkasthouder links </t>
+      <t xml:space="preserve">Bodemplaat met </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SWGDT"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">opening voor raster </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SWGDT"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>18mm</t>
+    </r>
+  </si>
+  <si>
+    <t>Afm. (LBH) 495x457x18</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Balkje lang voor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="SWGDT"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">verhoging </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="SWGDT"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">bodemplaat met </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="SWGDT"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>raster</t>
+    </r>
+  </si>
+  <si>
+    <t>Afm. (LBH) 495x12x18</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Balkje kort voor </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SWGDT"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">verhoging </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SWGDT"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">bodemplaat met </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SWGDT"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>raster</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Afm. (LBH) 445x12x18</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bovenplaat van </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="SWGDT"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">het deksel 18mm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="SWGDT"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>dikte</t>
+    </r>
+  </si>
+  <si>
+    <t>Afm. (LBH) 535x490x18</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Langste zijde dakje </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="SWGDT"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">buitenkant 18mm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="SWGDT"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>dikte</t>
+    </r>
+  </si>
+  <si>
+    <t>Afm. (LBH) 535x120x18.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Korte zijde dakje </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="SWGDT"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">buitenkant 18mm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="SWGDT"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>dikte</t>
+    </r>
+  </si>
+  <si>
+    <t>Afm. (LBH) 490x120x18</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Langste zijde dakje </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="SWGDT"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">binnenkant 18mm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="SWGDT"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>dikte</t>
+    </r>
+  </si>
+  <si>
+    <t>Afm. (LBH) 499x70x18</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Korte zijde dakje </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="SWGDT"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">binnenkant 18mm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="SWGDT"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>dikte</t>
+    </r>
+  </si>
+  <si>
+    <t>Afm. (LBH) 436x70x18</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bovenplaat met gat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SWGDT"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>(plexi)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Afm. (LBH) 490x445x(xx)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lange buitenzijde </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="SWGDT"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>18mm dikte</t>
+    </r>
+  </si>
+  <si>
+    <t>Afm. (LBH) 490x300x18</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Korte buitenzijde </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="SWGDT"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>18mm dikte</t>
+    </r>
+  </si>
+  <si>
+    <t>Afm. (LBH) 427x300x18</t>
+  </si>
+  <si>
+    <t>Balkjes 12mm dikte</t>
+  </si>
+  <si>
+    <t>Afm. (LBH) 454x12x12</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Lange binnenzijde </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="SWGDT"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>12mm dikte</t>
+    </r>
+  </si>
+  <si>
+    <t>Afm. (LBH) 454x277x12</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Binnevlieggat </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="SWGDT"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>12mm dikte</t>
+    </r>
+  </si>
+  <si>
+    <t>Afm. (LBH) 495x25x12</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">30 voetstuk bijenkast </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SWGDT"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">bijenkasthouder links </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SWGDT"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">rechts 30mm dikte </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SWGDT"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>(2)</t>
+    </r>
+  </si>
+  <si>
+    <t>Afm. (LBH) 457x60x30</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">30 voetstuk bijenkast </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SWGDT"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">bijenkasthouder links </t>
     </r>
     <r>
       <rPr>
@@ -71,206 +675,36 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">(LBH) 500x60x30 </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">30 voetstuk bijenkast bijenkasthouder links </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SWGDT"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>rechts 30mm dikte (2)</t>
-    </r>
-  </si>
-  <si>
-    <t>Bodemplaat met opening voor raster 18mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(LBH) 450x500x18 </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Balkje lang voor verhoging bodemplaat </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="SWGDT"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>met raster</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">(LBH) 500x12x18 </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Balkje kort voor verhoging bodemplaat met </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SWGDT"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>raster</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">(LBH) 426x12x18 </t>
-  </si>
-  <si>
-    <t>Bovenplaat van het deksel 18mm dikte</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (LBH) 535x490x18 </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Langste zijde dakje buitenkant 18mm </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="SWGDT"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>dikte</t>
-    </r>
-  </si>
-  <si>
-    <t>(LBH) 535x120x18</t>
-  </si>
-  <si>
-    <t>Korte zijde dakje buitenkant 18mm dikte</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (LBH) 490x120x18 </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Langste zijde dakje binnenkant 19mm </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="SWGDT"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="1"/>
-        <rFont val="Century Gothic"/>
-        <family val="2"/>
-      </rPr>
-      <t>dikte</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">(LBH) 499x70x18 </t>
-  </si>
-  <si>
-    <t>Korte zijde dakje binnenkant 18mm dikte</t>
-  </si>
-  <si>
-    <t>(LBH) 436x70x18</t>
-  </si>
-  <si>
-    <t>Bovenplaat met gat (plexi)</t>
-  </si>
-  <si>
-    <t>(LBH) 490x445x(xx)</t>
-  </si>
-  <si>
-    <t>lange buitenzijde 18mm dikte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(LBH) 490x300x18 </t>
-  </si>
-  <si>
-    <t>Korte buitenzijde 18mm dikte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(LBH) 427x300x18 </t>
-  </si>
-  <si>
-    <t>Balkjes 12mm dikte</t>
-  </si>
-  <si>
-    <t>(LBH) 454x12x12</t>
-  </si>
-  <si>
-    <t>Lange binnenzijde 12mm dikte</t>
-  </si>
-  <si>
-    <t>(LBH) 454x277x12</t>
-  </si>
-  <si>
-    <t>12 binnevlieggat 12mm dikte</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> (LBH) 450x25x10 </t>
+    <r>
+      <t xml:space="preserve">luchtplaat afdichting </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SWGDT"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Century Gothic"/>
+        <family val="2"/>
+      </rPr>
+      <t>bodem</t>
+    </r>
+  </si>
+  <si>
+    <t>Afm. (LBH) 455x445x8</t>
   </si>
   <si>
     <t>stopplankjes poten</t>
   </si>
   <si>
-    <t>(LBH) 410x17x12</t>
-  </si>
-  <si>
-    <t>luchtplaat afdichting bodem</t>
-  </si>
-  <si>
-    <t>(LBH) 410x488x8</t>
+    <t>Afm. (LBH) 455x17x12</t>
   </si>
 </sst>
 </file>
@@ -360,8 +794,8 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{79ED318F-9214-4CB4-A916-750E8DF9DC24}">
-  <header guid="{79ED318F-9214-4CB4-A916-750E8DF9DC24}" dateTime="2019-03-04T17:57:35" maxSheetId="2" userName="Shadeshroud -" r:id="rId1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{2C88EE36-4177-458A-AF14-8B977AE501F9}">
+  <header guid="{2C88EE36-4177-458A-AF14-8B977AE501F9}" dateTime="2019-03-04T23:37:30" maxSheetId="2" userName="Shadeshroud -" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
@@ -375,7 +809,7 @@
 
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
 <users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{79ED318F-9214-4CB4-A916-750E8DF9DC24}" name="Shadeshroud -" id="-1771881638" dateTime="2019-03-04T17:57:35"/>
+  <userInfo guid="{2C88EE36-4177-458A-AF14-8B977AE501F9}" name="Shadeshroud -" id="-1771851933" dateTime="2019-03-04T23:37:30"/>
 </users>
 </file>
 
@@ -675,34 +1109,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C6E4CC1-EDB7-4BEF-8A65-FD11BCF0628E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6856D3B6-0076-4301-85C3-26EC8A8BF22A}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="51.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -716,144 +1150,144 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+    <row r="3" spans="1:4" ht="68.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="2">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+    <row r="4" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
+      <c r="B6" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="51" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:4" ht="51" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="1">
+        <v>19</v>
+      </c>
+      <c r="D9" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
+      <c r="B12" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
+        <v>25</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -861,72 +1295,72 @@
         <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D14" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="33.75" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D15" s="2">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="69" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>31</v>
+      <c r="B16" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="51.75" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>34</v>
       </c>
       <c r="D17" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="34.5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -937,7 +1371,7 @@
         <v>36</v>
       </c>
       <c r="D18" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="17.25" x14ac:dyDescent="0.25">
@@ -951,12 +1385,12 @@
         <v>38</v>
       </c>
       <c r="D19" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{AEFDC6F7-2A2C-4686-853B-9FCED63E7946}">
+    <customSheetView guid="{717E67CA-9843-491D-857B-FAF1EEF9741F}">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
     </customSheetView>
